--- a/historical/DELHIVERY.xlsx
+++ b/historical/DELHIVERY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -426,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4333,6 +4333,53 @@
         <v>0.3341</v>
       </c>
     </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>575.55</v>
+      </c>
+      <c r="E84">
+        <v>588.9</v>
+      </c>
+      <c r="F84">
+        <v>588.9</v>
+      </c>
+      <c r="G84">
+        <v>576.3</v>
+      </c>
+      <c r="H84">
+        <v>582</v>
+      </c>
+      <c r="I84">
+        <v>581.35</v>
+      </c>
+      <c r="J84">
+        <v>581.24</v>
+      </c>
+      <c r="K84">
+        <v>292812</v>
+      </c>
+      <c r="L84">
+        <v>17019475625000</v>
+      </c>
+      <c r="M84">
+        <v>10777</v>
+      </c>
+      <c r="N84">
+        <v>142052</v>
+      </c>
+      <c r="O84">
+        <v>0.4851</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
